--- a/Excel/Excel solution.xlsx
+++ b/Excel/Excel solution.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hudac-my.sharepoint.com/personal/j_li_hud_ac_uk/Documents/Documents/github/Solution-for-Powerbi-Excel-Python-Sql/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_F25DC773A252ABDACC104840C91B456C5ADE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0C8709A-4DC3-4C1D-915E-012DD003521A}"/>
+  <xr:revisionPtr revIDLastSave="166" documentId="11_F25DC773A252ABDACC104840C91B456C5ADE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{629882DD-D98B-4831-AFC5-5616004B5596}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,8 +38,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>Extract the unique values in specific column - IF(COUNTIF($A$2:A2, A2)=1, A2, "")</t>
   </si>
@@ -54,13 +79,88 @@
   </si>
   <si>
     <t>results</t>
+  </si>
+  <si>
+    <t>Get the column label - SUBSTITUTE(ADDRESS(1, A2, 4), "1", "")</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Keep the Drop-down List Arrow always visible</t>
+  </si>
+  <si>
+    <t></t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>CoCH 16</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>CoCH 17</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>COCH 17</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Part</t>
+  </si>
+  <si>
+    <t>Get all the matched information into a cell - TEXTJOIN(", ",TRUE,IF(B:B=A2,C:C,""))</t>
+  </si>
+  <si>
+    <t>HFA1004</t>
+  </si>
+  <si>
+    <t>HFA1005</t>
+  </si>
+  <si>
+    <t>Module Name</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>HFB2001</t>
+  </si>
+  <si>
+    <t>HFB2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List all matched information - IFERROR(INDEX(HSS_Map[HSS-Q],SMALL(IF($G$4=HSS_Map[HSS-Qgroup],ROW(HSS_Map[HSS-Q])-MIN(ROW(HSS_Map[HSS-Q]))+1),ROW(A1)),COLUMN(A1)),"") </t>
+  </si>
+  <si>
+    <t>Xlookup to get the blank value rather than using 0 instead - LET(x,XLOOKUP($A12,Mod!$D:$D,Mod!I:I,""),IF(x="","",x))</t>
+  </si>
+  <si>
+    <t>Get the value of specific cell - INDIRECT("E34")</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,8 +176,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Wingdings 3"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -90,8 +209,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color rgb="FFFEFEFE"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FFF1F4F8"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -114,20 +249,230 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -138,6 +483,476 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Drop" dropStyle="combo" dx="20" fmlaLink="$J$4" fmlaRange="$G$16:$G$18" noThreeD="1" sel="1" val="0"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BCE5837-3F82-4B96-B483-C62A8B53A5C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2228850" y="2867025"/>
+          <a:ext cx="1352550" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Input Message</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95248</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Freeform 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BBF19CC-E22F-4E60-BA4D-B6FD48EC3043}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1447800" y="2952748"/>
+          <a:ext cx="819150" cy="47626"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 533400 w 533400"/>
+            <a:gd name="connsiteY0" fmla="*/ 1058 h 77258"/>
+            <a:gd name="connsiteX1" fmla="*/ 228600 w 533400"/>
+            <a:gd name="connsiteY1" fmla="*/ 10583 h 77258"/>
+            <a:gd name="connsiteX2" fmla="*/ 0 w 533400"/>
+            <a:gd name="connsiteY2" fmla="*/ 77258 h 77258"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="533400" h="77258">
+              <a:moveTo>
+                <a:pt x="533400" y="1058"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="425450" y="-530"/>
+                <a:pt x="317500" y="-2117"/>
+                <a:pt x="228600" y="10583"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="139700" y="23283"/>
+                <a:pt x="69850" y="50270"/>
+                <a:pt x="0" y="77258"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E657AC5B-4CD1-4B6B-B3DB-9F521BC34AC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2257425" y="3143250"/>
+          <a:ext cx="1352550" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Hyperlink</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>46567</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Freeform 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CC678C9-B85B-4750-BBDA-124EF3D13B33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1238250" y="494242"/>
+          <a:ext cx="533400" cy="58208"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 533400 w 533400"/>
+            <a:gd name="connsiteY0" fmla="*/ 1058 h 77258"/>
+            <a:gd name="connsiteX1" fmla="*/ 228600 w 533400"/>
+            <a:gd name="connsiteY1" fmla="*/ 10583 h 77258"/>
+            <a:gd name="connsiteX2" fmla="*/ 0 w 533400"/>
+            <a:gd name="connsiteY2" fmla="*/ 77258 h 77258"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="533400" h="77258">
+              <a:moveTo>
+                <a:pt x="533400" y="1058"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="425450" y="-530"/>
+                <a:pt x="317500" y="-2117"/>
+                <a:pt x="228600" y="10583"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="139700" y="23283"/>
+                <a:pt x="69850" y="50270"/>
+                <a:pt x="0" y="77258"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>600075</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Drop Down 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EA749BD-4CC3-48AB-A01A-3D728186A926}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="MASCODE"/>
+      <sheetName val="Lists"/>
+      <sheetName val="Subj Area"/>
+      <sheetName val="H&amp;SA WRKINGS"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Instructions - set up"/>
+      <sheetName val="PINS22_23"/>
+      <sheetName val="PINS21_22"/>
+      <sheetName val="PINS20_21"/>
+      <sheetName val="USER INSTRUCTIONS"/>
+      <sheetName val="SELECT YOUR CRITERIA"/>
+      <sheetName val="Headline"/>
+      <sheetName val="Subject Area"/>
+      <sheetName val="Programme Level"/>
+      <sheetName val="MAS CODE Level"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B6938AF-29D5-485D-BC55-7E92B48BBA75}" name="mod" displayName="mod" ref="E29:F33" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+  <autoFilter ref="E29:F33" xr:uid="{7B6938AF-29D5-485D-BC55-7E92B48BBA75}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{7EB3E34D-5D17-4FD8-8873-66C9645D12E0}" name="Module Name" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{B8110A4A-0A9A-4D71-8918-54ACD5B72625}" name="Year" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,74 +1217,347 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="2.42578125" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="str">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="str">
         <f>IF(COUNTIF($D$3:D3,D3)=1,D3,"")</f>
         <v>23/24</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="str">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="str">
         <f>IF(COUNTIF($D$3:D4,D4)=1,D4,"")</f>
         <v>22/23</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="str">
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="str">
         <f>IF(COUNTIF($D$3:D5,D5)=1,D5,"")</f>
         <v>21/22</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D6" s="2" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="str">
+        <f>IF(COUNTIF($D$3:D6,D6)=1,D6,"")</f>
+        <v/>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D7" s="2" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="str">
+        <f>IF(COUNTIF($D$3:D7,D7)=1,D7,"")</f>
+        <v/>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D8" s="2" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="str">
+        <f>IF(COUNTIF($D$3:D8,D8)=1,D8,"")</f>
+        <v/>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
+        <v>27</v>
+      </c>
+      <c r="C12" s="10" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,B12, 4), "1", "")</f>
+        <v>AA</v>
+      </c>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
+        <v>28</v>
+      </c>
+      <c r="C13" s="10" t="str">
+        <f>SUBSTITUTE(ADDRESS(1,B13, 4), "1", "")</f>
+        <v>AB</v>
+      </c>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="8" t="str">
+        <f>HYPERLINK("#"&amp;ADDRESS(ROW(),COLUMN()-1),CHAR(128))</f>
+        <v>€</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="13" t="str" cm="1">
+        <f t="array" ref="B24">_xlfn.TEXTJOIN(", ",TRUE,IF($E$24:$E$26=$B$23,$F$24:$F$26,""))</f>
+        <v>1, 2</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="str" cm="1">
+        <f t="array" ref="B30">IFERROR(INDEX(mod[Module Name],SMALL(IF($B$29=mod[Year],ROW(mod[Module Name])-ROW($E$30)+1),ROW(1:1))),"")</f>
+        <v>HFB2001</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="str" cm="1">
+        <f t="array" ref="B31">IFERROR(INDEX(mod[Module Name],SMALL(IF($B$29=mod[Year],ROW(mod[Module Name])-ROW($E$30)+1),ROW(2:2))),"")</f>
+        <v>HFB2002</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" t="str" cm="1">
+        <f t="array" ref="B32">IFERROR(INDEX(mod[Module Name],SMALL(IF($B$29=mod[Year],ROW(mod[Module Name])-ROW($E$30)+1),ROW(3:3))),"")</f>
+        <v/>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E33" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="13" t="str">
+        <f>_xlfn.LET(_xlpm.x,_xlfn.XLOOKUP(B36,$E$36:$E$37,$F$36:$F$37,""),IF(_xlpm.x="","",_xlpm.x))</f>
+        <v/>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="11" cm="1">
+        <f t="array" aca="1" ref="B40" ca="1">INDIRECT("E34")</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select the cell to the left to active the drop-down menu." sqref="C16" xr:uid="{E4F9016C-971F-46A7-90DE-FBB184158812}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16 B18" xr:uid="{D24FFB10-72B8-49AF-95A3-2A80AC671C6B}">
+      <formula1>$G$16:$G$18</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1029" r:id="rId4" name="Drop Down 5">
+              <controlPr defaultSize="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>600075</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <tableParts count="1">
+    <tablePart r:id="rId5"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Excel/Excel solution.xlsx
+++ b/Excel/Excel solution.xlsx
@@ -10,14 +10,11 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="166" documentId="11_F25DC773A252ABDACC104840C91B456C5ADE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{629882DD-D98B-4831-AFC5-5616004B5596}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -358,12 +355,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -375,41 +366,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -451,13 +418,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -470,6 +430,43 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -509,7 +506,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BCE5837-3F82-4B96-B483-C62A8B53A5C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -577,7 +574,7 @@
         <xdr:cNvPr id="3" name="Freeform 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BBF19CC-E22F-4E60-BA4D-B6FD48EC3043}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -683,7 +680,7 @@
         <xdr:cNvPr id="4" name="TextBox 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E657AC5B-4CD1-4B6B-B3DB-9F521BC34AC7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -751,7 +748,7 @@
         <xdr:cNvPr id="5" name="Freeform 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CC678C9-B85B-4750-BBDA-124EF3D13B33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -862,7 +859,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EA749BD-4CC3-48AB-A01A-3D728186A926}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -900,56 +897,12 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="MASCODE"/>
-      <sheetName val="Lists"/>
-      <sheetName val="Subj Area"/>
-      <sheetName val="H&amp;SA WRKINGS"/>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Instructions - set up"/>
-      <sheetName val="PINS22_23"/>
-      <sheetName val="PINS21_22"/>
-      <sheetName val="PINS20_21"/>
-      <sheetName val="USER INSTRUCTIONS"/>
-      <sheetName val="SELECT YOUR CRITERIA"/>
-      <sheetName val="Headline"/>
-      <sheetName val="Subject Area"/>
-      <sheetName val="Programme Level"/>
-      <sheetName val="MAS CODE Level"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B6938AF-29D5-485D-BC55-7E92B48BBA75}" name="mod" displayName="mod" ref="E29:F33" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7B6938AF-29D5-485D-BC55-7E92B48BBA75}" name="mod" displayName="mod" ref="E29:F33" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3" totalsRowBorderDxfId="2">
   <autoFilter ref="E29:F33" xr:uid="{7B6938AF-29D5-485D-BC55-7E92B48BBA75}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7EB3E34D-5D17-4FD8-8873-66C9645D12E0}" name="Module Name" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{B8110A4A-0A9A-4D71-8918-54ACD5B72625}" name="Year" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{7EB3E34D-5D17-4FD8-8873-66C9645D12E0}" name="Module Name" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{B8110A4A-0A9A-4D71-8918-54ACD5B72625}" name="Year" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1312,30 +1265,30 @@
       <c r="B11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>27</v>
       </c>
-      <c r="C12" s="10" t="str">
+      <c r="C12" s="19" t="str">
         <f>SUBSTITUTE(ADDRESS(1,B12, 4), "1", "")</f>
         <v>AA</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="19"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>28</v>
       </c>
-      <c r="C13" s="10" t="str">
+      <c r="C13" s="19" t="str">
         <f>SUBSTITUTE(ADDRESS(1,B13, 4), "1", "")</f>
         <v>AB</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="19"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1343,7 +1296,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -1359,7 +1312,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="8" t="str">
@@ -1387,7 +1340,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="str" cm="1">
+      <c r="B24" s="11" t="str" cm="1">
         <f t="array" ref="B24">_xlfn.TEXTJOIN(", ",TRUE,IF($E$24:$E$26=$B$23,$F$24:$F$26,""))</f>
         <v>1, 2</v>
       </c>
@@ -1420,13 +1373,13 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="17" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1435,10 +1388,10 @@
         <f t="array" ref="B30">IFERROR(INDEX(mod[Module Name],SMALL(IF($B$29=mod[Year],ROW(mod[Module Name])-ROW($E$30)+1),ROW(1:1))),"")</f>
         <v>HFB2001</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1447,10 +1400,10 @@
         <f t="array" ref="B31">IFERROR(INDEX(mod[Module Name],SMALL(IF($B$29=mod[Year],ROW(mod[Module Name])-ROW($E$30)+1),ROW(2:2))),"")</f>
         <v>HFB2002</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1459,18 +1412,18 @@
         <f t="array" ref="B32">IFERROR(INDEX(mod[Module Name],SMALL(IF($B$29=mod[Year],ROW(mod[Module Name])-ROW($E$30)+1),ROW(3:3))),"")</f>
         <v/>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="15" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1489,7 +1442,7 @@
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="13" t="str">
+      <c r="B37" s="11" t="str">
         <f>_xlfn.LET(_xlpm.x,_xlfn.XLOOKUP(B36,$E$36:$E$37,$F$36:$F$37,""),IF(_xlpm.x="","",_xlpm.x))</f>
         <v/>
       </c>
@@ -1506,7 +1459,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="11" cm="1">
+      <c r="B40" s="9" cm="1">
         <f t="array" aca="1" ref="B40" ca="1">INDIRECT("E34")</f>
         <v>0</v>
       </c>

--- a/Excel/Excel solution.xlsx
+++ b/Excel/Excel solution.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="166" documentId="11_F25DC773A252ABDACC104840C91B456C5ADE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{629882DD-D98B-4831-AFC5-5616004B5596}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="27120" yWindow="2985" windowWidth="23130" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1175,7 +1175,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="B18" sqref="B18:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
